--- a/public/attachments/user_template.xlsx
+++ b/public/attachments/user_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LaravelCodes\Freelance_Projects\thesis_exam\thesis_exam\public\attachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>address</t>
   </si>
@@ -125,12 +125,35 @@
   <si>
     <t>teacher</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>student_id</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> *</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,6 +181,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -205,7 +235,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -215,6 +245,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -496,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,75 +545,84 @@
     <col min="6" max="6" width="27.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>123456</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="4">
+      <c r="F2" s="4">
         <v>36161</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>123457</v>
+      </c>
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="4">
+      <c r="F3" s="4">
         <v>36161</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G3">
       <formula1>"student,teacher"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
